--- a/doc/RequestString.xlsx
+++ b/doc/RequestString.xlsx
@@ -1,74 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="95" windowWidth="19195" windowHeight="11642"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>请求地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s=m/e-c-page-1.html</t>
-  </si>
-  <si>
-    <t>s=e-c-page-1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转换后的请求字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.tzy.com/e-c-page-1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tzy.com/e-c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s=e-c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s=m/e-c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tzy.com/m/e-c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s=m/e-c-page-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tzy.com/m/e-c-page-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tzy.com/e-c-page-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s=e-c-page-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.tzy.com/a106c0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,38 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.tzy.com/m/e/c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s=m/e/c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tzy.com/m/e/c.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s=m/e/c.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tzy.com/m/e/c/page/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tzy.com/m/e/c/page/1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s=m/e/c/page/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s=m/e/c/page/1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转换规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.tzy.com/m/e-c-page-1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.tzy.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,40 +56,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s=module/entry-controller-key-value.suffix
+    <t>s=六位字符串.suffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=entry/controller-key-value.suffix
 （module为index时可省略）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s=六位字符串.suffix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s=module/entry/controller/key/value.suffix
+    <t>s=entry/controller/key/value.suffix
 （module不可省略）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.tzy.com/c-page-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=c-page-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tzy.com/c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tzy.com/e/c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tzy.com/e/c.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tzy.com/e/c/page/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tzy.com/e/c/page/1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=e/c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=e/c.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=e/c/page/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=e/c/page/1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tzy.com/c.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tzy.com/c-page-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tzy.com/e/c-page-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tzy.com/e/c-page-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=c.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=c-page-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=e/c-page-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=e/c-page-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最少包含1个"/"
+必定无"-"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能有"/"
+可能有"-"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>必定无"/"
-必定无"-"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最少包含2个"/"
-必定无"-"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最多包含1个"/"
-必定有"-"</t>
+必定无"-"
+可能有数字
+地址串必定6个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tzy.com/e/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=e/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -227,13 +236,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +288,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -264,7 +319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -338,7 +393,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -373,7 +427,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,14 +602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+      <selection activeCell="C12" sqref="C12:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="22.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="52.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
@@ -564,214 +617,202 @@
     <col min="4" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="22.1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.1" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="22.1" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.1" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="22.1" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="22.1" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="22.1" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="22.1" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="22.1" customHeight="1">
+      <c r="A9" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.1" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="22.1" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="22.1" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22.1" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="22.1" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+    <row r="15" spans="1:4" ht="22.1" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="22.1" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="22.1" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="22.1" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
     <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C14"/>
     <mergeCell ref="D3:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>